--- a/_sources/Historia/historia.xlsx
+++ b/_sources/Historia/historia.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E25F99-E685-4F2E-A64E-0960D12BF79C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7FA6B2-18EC-48E9-A852-855A8B158DB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -143,6 +143,170 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Egyenes összekötő nyíllal 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99182261-807E-477D-87E7-36ED4E388C1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1562100" y="638175"/>
+          <a:ext cx="3190875" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>405765</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Egyenes összekötő nyíllal 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35EEADC6-A9B2-4912-89BC-4A9E4C2F1F2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1624965" y="476250"/>
+          <a:ext cx="3089910" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>129541</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Egyenes összekötő nyíllal 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4D698B0-9475-4968-9BBC-68812F8F07D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4200525" y="1905000"/>
+          <a:ext cx="1285875" cy="1301116"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,38 +572,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:T8"/>
+  <dimension ref="A2:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
@@ -458,32 +615,8 @@
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C4" s="1">
         <v>1</v>
       </c>
@@ -492,24 +625,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="R4" s="1">
-        <v>1</v>
-      </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -518,24 +635,8 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>2</v>
-      </c>
-      <c r="O5" s="1">
-        <v>2</v>
-      </c>
-      <c r="P5" s="1"/>
-      <c r="R5" s="1">
-        <v>2</v>
-      </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>3</v>
       </c>
@@ -544,36 +645,122 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="1">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C13" s="1">
         <v>3</v>
       </c>
-      <c r="O6" s="1">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
         <v>3</v>
       </c>
-      <c r="P6" s="1"/>
-      <c r="R6" s="1">
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G21" s="1">
         <v>3</v>
       </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="O7" s="1">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G22" s="1">
         <v>4</v>
       </c>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="O8" s="1">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G23" s="1">
         <v>5</v>
       </c>
-      <c r="P8" s="1"/>
+      <c r="H23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>